--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Num</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>will likely need to hash user input strings</t>
+  </si>
+  <si>
+    <t>Link URLs to playing videos</t>
+  </si>
+  <si>
+    <t>Allow links to point directly to a video for purposes of sharing online</t>
   </si>
 </sst>
 </file>
@@ -204,8 +210,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,13 +225,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -806,6 +816,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
